--- a/genomic_range/results/Sensitivity_Table.xlsx
+++ b/genomic_range/results/Sensitivity_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mei/iMac_Backup_3_12_2019/GSAChipSeqBenchmarkData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mei/Desktop/benchmarks/genomic_range/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D7A72F-CE6E-D744-A4BE-F61775FA1D2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ADCC3E-D056-3E43-BB2F-3CA06A4CB355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17260" yWindow="460" windowWidth="18060" windowHeight="28340" xr2:uid="{9FDEA6EF-D5C4-7F45-96BD-DB608973E662}"/>
+    <workbookView xWindow="17260" yWindow="460" windowWidth="18060" windowHeight="26780" xr2:uid="{9FDEA6EF-D5C4-7F45-96BD-DB608973E662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="133">
   <si>
     <t>Chipenrich_Colorectal_Cancer</t>
   </si>
@@ -415,6 +415,21 @@
   </si>
   <si>
     <t>Enrichr_Median_Sensitivity</t>
+  </si>
+  <si>
+    <t>GREAT_Colorectal_Cancer</t>
+  </si>
+  <si>
+    <t>GREAT_Alzheimers_Disease</t>
+  </si>
+  <si>
+    <t>GREAT_Gastric_Cancer</t>
+  </si>
+  <si>
+    <t>GREAT_Prostate_Cancer</t>
+  </si>
+  <si>
+    <t>GREAT_Median_Sensitivity</t>
   </si>
 </sst>
 </file>
@@ -781,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC195-AB1D-C14E-9476-031E2CC25C6F}">
-  <dimension ref="A1:U107"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O92" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T107" sqref="T107"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,15 +819,20 @@
     <col min="13" max="13" width="25.83203125" customWidth="1"/>
     <col min="14" max="14" width="26.83203125" customWidth="1"/>
     <col min="15" max="15" width="27.5" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="23.1640625" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" customWidth="1"/>
-    <col min="20" max="20" width="21.5" customWidth="1"/>
-    <col min="21" max="21" width="23" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="23" customWidth="1"/>
+    <col min="21" max="21" width="12.5" customWidth="1"/>
+    <col min="22" max="22" width="20.5" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" customWidth="1"/>
+    <col min="24" max="24" width="18" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" customWidth="1"/>
+    <col min="26" max="26" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -859,25 +879,40 @@
         <v>121</v>
       </c>
       <c r="P1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S1" t="s">
-        <v>125</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>25</v>
       </c>
@@ -926,27 +961,31 @@
         <f>MEDIAN($K2,$L2,$M2,$N2)</f>
         <v>0</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>MEDIAN($P2,$Q2,$R2,$S2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f>MEDIAN($Q2,$R2,$S2,$T2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z2" t="e">
+        <f>MEDIAN($U2,$V2,$W2,$X2)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>18.75</v>
       </c>
@@ -995,27 +1034,31 @@
         <f t="shared" ref="O3:O66" si="2">MEDIAN($K3,$L3,$M3,$N3)</f>
         <v>0</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="3">MEDIAN($P3,$Q3,$R3,$S3)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U66" si="3">MEDIAN($Q3,$R3,$S3,$T3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z3" t="e">
+        <f t="shared" ref="Z3:Z66" si="4">MEDIAN($U3,$V3,$W3,$X3)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>62.5</v>
       </c>
@@ -1064,11 +1107,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z4" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1102,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="Q5" t="s">
         <v>122</v>
@@ -1113,11 +1160,15 @@
       <c r="S5" t="s">
         <v>122</v>
       </c>
-      <c r="T5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>62.5</v>
       </c>
@@ -1166,11 +1217,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" t="s">
+      <c r="U6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z6" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>12.5</v>
       </c>
@@ -1203,27 +1258,31 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
         <v>10</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z7" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6.25</v>
       </c>
@@ -1272,27 +1331,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z8" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6.25</v>
       </c>
@@ -1341,27 +1404,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
         <v>12</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6.25</v>
       </c>
@@ -1410,27 +1477,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>6.25</v>
       </c>
@@ -1479,27 +1550,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
         <v>14</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z11" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>6.25</v>
       </c>
@@ -1532,27 +1607,31 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z12" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>75</v>
       </c>
@@ -1601,27 +1680,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P13" t="s">
-        <v>16</v>
+      <c r="P13" s="1">
+        <v>16.66667</v>
       </c>
       <c r="Q13" s="1">
-        <v>16.66667</v>
-      </c>
-      <c r="R13" s="1">
         <v>57.142859999999999</v>
+      </c>
+      <c r="R13">
+        <v>25</v>
       </c>
       <c r="S13">
         <v>25</v>
       </c>
       <c r="T13">
-        <v>25</v>
-      </c>
-      <c r="U13">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>75</v>
       </c>
@@ -1670,27 +1753,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" t="s">
-        <v>17</v>
+      <c r="P14" s="1">
+        <v>16.66667</v>
       </c>
       <c r="Q14" s="1">
-        <v>16.66667</v>
+        <v>57.142859999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>57.142859999999999</v>
+        <v>25</v>
       </c>
       <c r="S14" s="1">
         <v>25</v>
       </c>
-      <c r="T14" s="1">
-        <v>25</v>
-      </c>
-      <c r="U14">
+      <c r="T14">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z14" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>75</v>
       </c>
@@ -1739,27 +1826,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P15" t="s">
-        <v>18</v>
+      <c r="P15" s="1">
+        <v>16.66667</v>
       </c>
       <c r="Q15" s="1">
-        <v>16.66667</v>
-      </c>
-      <c r="R15" s="1">
         <v>57.142859999999999</v>
+      </c>
+      <c r="R15">
+        <v>25</v>
       </c>
       <c r="S15">
         <v>25</v>
       </c>
       <c r="T15">
-        <v>25</v>
-      </c>
-      <c r="U15">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z15" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>6.25</v>
       </c>
@@ -1808,27 +1899,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z16" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>62.5</v>
       </c>
@@ -1877,27 +1972,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z17" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>50</v>
       </c>
@@ -1946,11 +2045,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P18" t="s">
+      <c r="U18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z18" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18.75</v>
       </c>
@@ -1999,27 +2102,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z19" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18.75</v>
       </c>
@@ -2068,27 +2175,31 @@
         <f>MEDIAN($K20,$L20,$M20,$N20)</f>
         <v>0</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z20" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>25</v>
       </c>
@@ -2137,11 +2248,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" t="s">
+      <c r="U21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z21" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6.25</v>
       </c>
@@ -2190,27 +2305,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" t="s">
-        <v>25</v>
+      <c r="P22" s="1">
+        <v>7.6923079999999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.6923079999999997</v>
-      </c>
-      <c r="R22" s="1">
         <v>14.28571</v>
       </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
       <c r="S22">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="T22">
-        <v>12.5</v>
-      </c>
-      <c r="U22">
         <f t="shared" si="3"/>
         <v>10.096154</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z22" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>56.25</v>
       </c>
@@ -2259,24 +2378,28 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
         <v>26</v>
       </c>
-      <c r="R23" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z23" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>6.25</v>
       </c>
@@ -2325,11 +2448,15 @@
         <f>MEDIAN($K24,$L24,$M24,$N24)</f>
         <v>0</v>
       </c>
-      <c r="P24" t="s">
+      <c r="U24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z24" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>12.5</v>
       </c>
@@ -2378,11 +2505,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" t="s">
+      <c r="U25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z25" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>75</v>
       </c>
@@ -2431,11 +2562,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P26" t="s">
+      <c r="U26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z26" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>62.5</v>
       </c>
@@ -2484,27 +2619,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P27" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="1">
+      <c r="P27" s="1">
         <v>6.6666670000000003</v>
       </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
       <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
         <v>12.5</v>
       </c>
-      <c r="T27" s="1">
+      <c r="S27" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U27">
+      <c r="T27">
         <f t="shared" si="3"/>
         <v>8.8888885000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z27" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>6.25</v>
       </c>
@@ -2553,27 +2692,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
         <v>31</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z28" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2622,27 +2765,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U29" t="s">
         <v>32</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z29" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>56.25</v>
       </c>
@@ -2691,27 +2838,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U30" t="s">
         <v>33</v>
       </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z30" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>31.25</v>
       </c>
@@ -2760,27 +2911,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q31" s="1">
+      <c r="P31" s="1">
         <v>5.8823530000000002</v>
       </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
       <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
         <v>12.5</v>
       </c>
-      <c r="T31" s="1">
+      <c r="S31" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U31">
+      <c r="T31">
         <f t="shared" si="3"/>
         <v>8.4967314999999992</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z31" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31.25</v>
       </c>
@@ -2829,27 +2984,31 @@
         <f>MEDIAN($K32,$L32,$M32,$N32)</f>
         <v>0</v>
       </c>
-      <c r="P32" t="s">
-        <v>35</v>
+      <c r="P32" s="1">
+        <v>6.6666670000000003</v>
       </c>
       <c r="Q32" s="1">
-        <v>6.6666670000000003</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="S32" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="T32" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U32">
+      <c r="T32">
         <f t="shared" si="3"/>
         <v>8.8888885000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z32" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>6.25</v>
       </c>
@@ -2898,27 +3057,31 @@
         <f>MEDIAN($K33,$L33,$M33,$N33)</f>
         <v>0</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U33" t="s">
         <v>36</v>
       </c>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33" s="1">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z33" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>25</v>
       </c>
@@ -2967,27 +3130,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P34" t="s">
-        <v>37</v>
+      <c r="P34" s="1">
+        <v>28.571429999999999</v>
       </c>
       <c r="Q34" s="1">
         <v>28.571429999999999</v>
       </c>
       <c r="R34" s="1">
-        <v>28.571429999999999</v>
+        <v>25</v>
       </c>
       <c r="S34" s="1">
-        <v>25</v>
-      </c>
-      <c r="T34" s="1">
         <v>33.333329999999997</v>
       </c>
-      <c r="U34">
+      <c r="T34">
         <f t="shared" si="3"/>
         <v>28.571429999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z34" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>50</v>
       </c>
@@ -3036,27 +3203,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P35" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q35" s="1">
+      <c r="P35" s="1">
         <v>5.8823530000000002</v>
       </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
       <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
         <v>12.5</v>
       </c>
-      <c r="T35" s="1">
+      <c r="S35" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U35">
+      <c r="T35">
         <f t="shared" si="3"/>
         <v>8.4967314999999992</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z35" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>56.25</v>
       </c>
@@ -3105,27 +3276,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U36" t="s">
         <v>39</v>
       </c>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
-      <c r="R36" s="1">
-        <v>0</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z36" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>62.5</v>
       </c>
@@ -3174,27 +3349,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U37" t="s">
         <v>40</v>
       </c>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37" s="1">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z37" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>56.25</v>
       </c>
@@ -3243,27 +3422,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
         <v>41</v>
       </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0</v>
-      </c>
-      <c r="S38" s="1">
-        <v>0</v>
-      </c>
-      <c r="T38" s="1">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z38" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>62.5</v>
       </c>
@@ -3312,27 +3495,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U39" t="s">
         <v>42</v>
       </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z39" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>56.25</v>
       </c>
@@ -3381,27 +3568,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U40" t="s">
         <v>43</v>
       </c>
-      <c r="Q40" s="1">
-        <v>0</v>
-      </c>
-      <c r="R40" s="1">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1">
-        <v>0</v>
-      </c>
-      <c r="T40" s="1">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z40" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>62.5</v>
       </c>
@@ -3450,27 +3641,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P41" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q41" s="1">
+      <c r="P41" s="1">
         <v>15.38462</v>
       </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
       <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
         <v>12.5</v>
       </c>
-      <c r="T41" s="1">
+      <c r="S41" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U41">
+      <c r="T41">
         <f t="shared" si="3"/>
         <v>11.805555</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z41" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>25</v>
       </c>
@@ -3519,27 +3714,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U42" t="s">
         <v>45</v>
       </c>
-      <c r="Q42" s="1">
-        <v>0</v>
-      </c>
-      <c r="R42" s="1">
-        <v>0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z42" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>50</v>
       </c>
@@ -3588,27 +3787,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U43" t="s">
         <v>46</v>
       </c>
-      <c r="Q43" s="1">
-        <v>6.25</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z43" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>56.25</v>
       </c>
@@ -3657,27 +3860,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P44" t="s">
-        <v>47</v>
+      <c r="P44" s="1">
+        <v>7.1428570000000002</v>
       </c>
       <c r="Q44" s="1">
-        <v>7.1428570000000002</v>
+        <v>14.28571</v>
       </c>
       <c r="R44" s="1">
-        <v>14.28571</v>
+        <v>12.5</v>
       </c>
       <c r="S44" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="T44" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U44">
+      <c r="T44">
         <f t="shared" si="3"/>
         <v>11.805555</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z44" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>75</v>
       </c>
@@ -3726,27 +3933,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P45" t="s">
-        <v>48</v>
+      <c r="P45" s="1">
+        <v>6.6666670000000003</v>
       </c>
       <c r="Q45" s="1">
-        <v>6.6666670000000003</v>
-      </c>
-      <c r="R45" s="1">
         <v>57.142859999999999</v>
       </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>0</v>
-      </c>
-      <c r="U45">
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="3"/>
         <v>3.3333335000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U45" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z45" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>62.5</v>
       </c>
@@ -3795,27 +4006,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P46" t="s">
-        <v>49</v>
+      <c r="P46" s="1">
+        <v>8.3333329999999997</v>
       </c>
       <c r="Q46" s="1">
-        <v>8.3333329999999997</v>
+        <v>0</v>
       </c>
       <c r="R46" s="1">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="S46" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="T46" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U46">
+      <c r="T46">
         <f t="shared" si="3"/>
         <v>9.7222214999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U46" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z46" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>62.5</v>
       </c>
@@ -3864,27 +4079,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P47" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q47" s="1">
+      <c r="P47" s="1">
         <v>7.1428570000000002</v>
       </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
       <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
         <v>12.5</v>
       </c>
-      <c r="T47" s="1">
+      <c r="S47" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U47">
+      <c r="T47">
         <f t="shared" si="3"/>
         <v>9.1269834999999997</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U47" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z47" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>56.25</v>
       </c>
@@ -3933,11 +4152,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P48" t="s">
+      <c r="U48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z48" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -3986,11 +4209,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P49" t="s">
+      <c r="U49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z49" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -4039,11 +4266,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P50" t="s">
+      <c r="U50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z50" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>56.25</v>
       </c>
@@ -4092,27 +4323,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P51" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q51" s="1">
+      <c r="P51" s="1">
         <v>26.66667</v>
       </c>
+      <c r="Q51">
+        <v>14.28571</v>
+      </c>
       <c r="R51">
-        <v>14.28571</v>
-      </c>
-      <c r="S51">
         <v>25</v>
       </c>
-      <c r="T51" s="1">
+      <c r="S51" s="1">
         <v>33.333329999999997</v>
       </c>
-      <c r="U51">
+      <c r="T51">
         <f t="shared" si="3"/>
         <v>25.833334999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U51" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z51" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>56.25</v>
       </c>
@@ -4161,27 +4396,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P52" t="s">
-        <v>55</v>
+      <c r="P52" s="1">
+        <v>14.28571</v>
       </c>
       <c r="Q52" s="1">
-        <v>14.28571</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="S52" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="T52" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U52">
+      <c r="T52">
         <f t="shared" si="3"/>
         <v>11.805555</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U52" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z52" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -4230,27 +4469,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P53" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q53" s="1">
+      <c r="P53" s="1">
         <v>33.333329999999997</v>
       </c>
+      <c r="Q53">
+        <v>57.142859999999999</v>
+      </c>
       <c r="R53">
-        <v>57.142859999999999</v>
-      </c>
-      <c r="S53">
         <v>25</v>
       </c>
-      <c r="T53" s="1">
+      <c r="S53" s="1">
         <v>33.333329999999997</v>
       </c>
-      <c r="U53">
+      <c r="T53">
         <f t="shared" si="3"/>
         <v>33.333329999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z53" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>62.5</v>
       </c>
@@ -4299,27 +4542,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U54" t="s">
         <v>57</v>
       </c>
-      <c r="Q54" s="1">
-        <v>0</v>
-      </c>
-      <c r="R54" s="1">
-        <v>0</v>
-      </c>
-      <c r="S54" s="1">
-        <v>0</v>
-      </c>
-      <c r="T54" s="1">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z54" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43.75</v>
       </c>
@@ -4368,27 +4615,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P55" t="s">
-        <v>58</v>
+      <c r="P55" s="1">
+        <v>8.3333329999999997</v>
       </c>
       <c r="Q55" s="1">
-        <v>8.3333329999999997</v>
-      </c>
-      <c r="R55" s="1">
         <v>16.66667</v>
       </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55" s="1">
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U55">
+      <c r="T55">
         <f t="shared" si="3"/>
         <v>9.7222214999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U55" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z55" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -4437,27 +4688,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="1">
+        <v>8.3333329999999997</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U56" t="s">
         <v>59</v>
       </c>
-      <c r="Q56" s="1">
-        <v>8.3333329999999997</v>
-      </c>
-      <c r="R56" s="1">
-        <v>0</v>
-      </c>
-      <c r="S56" s="1">
-        <v>0</v>
-      </c>
-      <c r="T56" s="1">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z56" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>50</v>
       </c>
@@ -4506,27 +4761,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P57" t="s">
-        <v>60</v>
+      <c r="P57" s="1">
+        <v>18.75</v>
       </c>
       <c r="Q57" s="1">
-        <v>18.75</v>
-      </c>
-      <c r="R57" s="1">
         <v>14.28571</v>
       </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57" s="1">
-        <v>0</v>
-      </c>
-      <c r="U57">
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57">
         <f t="shared" si="3"/>
         <v>7.142855</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U57" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z57" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>62.5</v>
       </c>
@@ -4575,27 +4834,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P58" t="s">
-        <v>61</v>
+      <c r="P58" s="1">
+        <v>6.6666670000000003</v>
       </c>
       <c r="Q58" s="1">
-        <v>6.6666670000000003</v>
+        <v>14.28571</v>
       </c>
       <c r="R58" s="1">
-        <v>14.28571</v>
+        <v>0</v>
       </c>
       <c r="S58" s="1">
         <v>0</v>
       </c>
-      <c r="T58" s="1">
-        <v>0</v>
-      </c>
-      <c r="U58">
+      <c r="T58">
         <f t="shared" si="3"/>
         <v>3.3333335000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U58" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z58" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>68.75</v>
       </c>
@@ -4644,27 +4907,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P59" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q59" s="1">
+      <c r="P59" s="1">
         <v>14.28571</v>
       </c>
+      <c r="Q59">
+        <v>20</v>
+      </c>
       <c r="R59">
-        <v>20</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59" s="1">
+        <v>0</v>
+      </c>
+      <c r="S59" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U59">
+      <c r="T59">
         <f t="shared" si="3"/>
         <v>12.698409999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U59" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z59" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>62.5</v>
       </c>
@@ -4713,27 +4980,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P60" t="s">
-        <v>63</v>
+      <c r="P60" s="1">
+        <v>15.38462</v>
       </c>
       <c r="Q60" s="1">
-        <v>15.38462</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="S60" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="T60" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U60">
+      <c r="T60">
         <f t="shared" si="3"/>
         <v>11.805555</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U60" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z60" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>68.75</v>
       </c>
@@ -4782,27 +5053,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P61" t="s">
-        <v>64</v>
+      <c r="P61" s="1">
+        <v>28.571429999999999</v>
       </c>
       <c r="Q61" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="R61" s="1">
         <v>14.28571</v>
       </c>
-      <c r="S61">
+      <c r="R61">
         <v>25</v>
       </c>
-      <c r="T61" s="1">
+      <c r="S61" s="1">
         <v>33.333329999999997</v>
       </c>
-      <c r="U61">
+      <c r="T61">
         <f t="shared" si="3"/>
         <v>26.785715</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U61" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z61" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>50</v>
       </c>
@@ -4851,27 +5126,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P62" t="s">
-        <v>65</v>
+      <c r="P62" s="1">
+        <v>13.33333</v>
       </c>
       <c r="Q62" s="1">
-        <v>13.33333</v>
+        <v>42.857140000000001</v>
       </c>
       <c r="R62" s="1">
-        <v>42.857140000000001</v>
+        <v>12.5</v>
       </c>
       <c r="S62" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="T62" s="1">
         <v>33.333329999999997</v>
       </c>
-      <c r="U62">
+      <c r="T62">
         <f t="shared" si="3"/>
         <v>23.333329999999997</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z62" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62.5</v>
       </c>
@@ -4920,27 +5199,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P63" t="s">
-        <v>66</v>
+      <c r="P63" s="1">
+        <v>7.1428570000000002</v>
       </c>
       <c r="Q63" s="1">
-        <v>7.1428570000000002</v>
-      </c>
-      <c r="R63" s="1">
         <v>14.28571</v>
       </c>
-      <c r="S63">
+      <c r="R63">
         <v>12.5</v>
       </c>
-      <c r="T63" s="1">
+      <c r="S63" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U63">
+      <c r="T63">
         <f t="shared" si="3"/>
         <v>11.805555</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U63" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z63" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43.75</v>
       </c>
@@ -4989,27 +5272,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P64" t="s">
-        <v>67</v>
+      <c r="P64" s="1">
+        <v>7.6923079999999997</v>
       </c>
       <c r="Q64" s="1">
-        <v>7.6923079999999997</v>
+        <v>28.571429999999999</v>
       </c>
       <c r="R64" s="1">
-        <v>28.571429999999999</v>
+        <v>12.5</v>
       </c>
       <c r="S64" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="T64" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U64">
+      <c r="T64">
         <f t="shared" si="3"/>
         <v>11.805555</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U64" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z64" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>37.5</v>
       </c>
@@ -5058,27 +5345,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P65" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q65" s="1">
+      <c r="P65" s="1">
         <v>6.6666670000000003</v>
       </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
       <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
         <v>12.5</v>
       </c>
-      <c r="T65" s="1">
+      <c r="S65" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U65">
+      <c r="T65">
         <f t="shared" si="3"/>
         <v>8.8888885000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U65" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z65" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43.75</v>
       </c>
@@ -5127,27 +5418,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P66" t="s">
-        <v>69</v>
+      <c r="P66" s="1">
+        <v>7.1428570000000002</v>
       </c>
       <c r="Q66" s="1">
-        <v>7.1428570000000002</v>
+        <v>0</v>
       </c>
       <c r="R66" s="1">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="S66" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="T66" s="1">
         <v>11.11111</v>
       </c>
-      <c r="U66">
+      <c r="T66">
         <f t="shared" si="3"/>
         <v>9.1269834999999997</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U66" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z66" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>62.5</v>
       </c>
@@ -5161,7 +5456,7 @@
         <v>60</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E107" si="4">MEDIAN($A67,$B67,$C67,$D67)</f>
+        <f t="shared" ref="E67:E107" si="5">MEDIAN($A67,$B67,$C67,$D67)</f>
         <v>61.25</v>
       </c>
       <c r="F67" s="1">
@@ -5177,7 +5472,7 @@
         <v>50</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J107" si="5">MEDIAN($F67,$G67,$H67,$I67)</f>
+        <f t="shared" ref="J67:J107" si="6">MEDIAN($F67,$G67,$H67,$I67)</f>
         <v>40.625</v>
       </c>
       <c r="K67" s="1">
@@ -5193,14 +5488,18 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O107" si="6">MEDIAN($K67,$L67,$M67,$N67)</f>
-        <v>0</v>
-      </c>
-      <c r="P67" t="s">
+        <f t="shared" ref="O67:O107" si="7">MEDIAN($K67,$L67,$M67,$N67)</f>
+        <v>0</v>
+      </c>
+      <c r="U67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z67" t="e">
+        <f t="shared" ref="Z67:Z107" si="8">MEDIAN($U67,$V67,$W67,$X67)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>62.5</v>
       </c>
@@ -5214,7 +5513,7 @@
         <v>70</v>
       </c>
       <c r="E68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.25</v>
       </c>
       <c r="F68" s="1">
@@ -5230,7 +5529,7 @@
         <v>50</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34.375</v>
       </c>
       <c r="K68" s="1">
@@ -5246,30 +5545,34 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P68" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="R68" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="S68" s="1">
+        <v>25</v>
+      </c>
+      <c r="T68">
+        <f t="shared" ref="T68:T107" si="9">MEDIAN($P68,$Q68,$R68,$S68)</f>
+        <v>21.875</v>
+      </c>
+      <c r="U68" t="s">
         <v>71</v>
       </c>
-      <c r="Q68" s="1">
-        <v>18.75</v>
-      </c>
-      <c r="R68" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="S68" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="T68" s="1">
-        <v>25</v>
-      </c>
-      <c r="U68">
-        <f t="shared" ref="U67:U107" si="7">MEDIAN($Q68,$R68,$S68,$T68)</f>
-        <v>21.875</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z68" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43.75</v>
       </c>
@@ -5283,7 +5586,7 @@
         <v>60</v>
       </c>
       <c r="E69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.571429999999999</v>
       </c>
       <c r="F69" s="1">
@@ -5299,2408 +5602,2548 @@
         <v>30</v>
       </c>
       <c r="J69">
+        <f t="shared" si="6"/>
+        <v>33.75</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="1">
+        <v>8.3333329999999997</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69" s="1">
+        <v>22.22222</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="9"/>
+        <v>11.309521499999999</v>
+      </c>
+      <c r="U69" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z69" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="B70" s="1">
+        <v>57.142859999999999</v>
+      </c>
+      <c r="C70" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="D70" s="1">
+        <v>40</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>48.125</v>
+      </c>
+      <c r="F70" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="G70" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="H70" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I70" s="1">
+        <v>40</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="6"/>
+        <v>41.428570000000001</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>11.11111</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="9"/>
+        <v>8.680555</v>
+      </c>
+      <c r="U70" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z70" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>25</v>
+      </c>
+      <c r="B71" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="C71">
+        <v>25</v>
+      </c>
+      <c r="D71">
+        <v>40</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>26.785715</v>
+      </c>
+      <c r="F71" s="1">
+        <v>25</v>
+      </c>
+      <c r="G71" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="H71">
+        <v>37.5</v>
+      </c>
+      <c r="I71">
+        <v>40</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="6"/>
+        <v>31.25</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="1">
+        <v>16.66667</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>12.5</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="9"/>
+        <v>6.25</v>
+      </c>
+      <c r="U71" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z71" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="B72" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="C72" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D72" s="1">
+        <v>20</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>16.517855000000001</v>
+      </c>
+      <c r="F72" s="1">
+        <v>25</v>
+      </c>
+      <c r="G72" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="H72" s="1">
+        <v>25</v>
+      </c>
+      <c r="I72" s="1">
+        <v>60</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>122</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U72" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z72" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="B73" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="C73">
+        <v>50</v>
+      </c>
+      <c r="D73">
+        <v>50</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>43.75</v>
+      </c>
+      <c r="F73" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="G73" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="H73">
+        <v>37.5</v>
+      </c>
+      <c r="I73">
+        <v>50</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="6"/>
+        <v>40.178570000000001</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U73" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z73" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="B74" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="C74" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="D74" s="1">
+        <v>50</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>56.25</v>
+      </c>
+      <c r="F74" s="1">
+        <v>25</v>
+      </c>
+      <c r="G74" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H74" s="1">
+        <v>25</v>
+      </c>
+      <c r="I74" s="1">
+        <v>40</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="6"/>
+        <v>26.785715</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U74" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="B75" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="C75">
+        <v>62.5</v>
+      </c>
+      <c r="D75">
+        <v>50</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>40.625</v>
+      </c>
+      <c r="F75" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="G75" s="1">
+        <v>57.142859999999999</v>
+      </c>
+      <c r="H75">
+        <v>62.5</v>
+      </c>
+      <c r="I75">
+        <v>60</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="6"/>
+        <v>58.571429999999999</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
+        <v>7.6923079999999997</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="9"/>
+        <v>3.8461539999999999</v>
+      </c>
+      <c r="U75" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z75" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="B76" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="C76" s="1">
+        <v>50</v>
+      </c>
+      <c r="D76" s="1">
+        <v>50</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>43.75</v>
+      </c>
+      <c r="F76" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G76" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H76" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="I76" s="1">
+        <v>20</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="6"/>
+        <v>16.25</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="1">
+        <v>7.1428570000000002</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U76" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>50</v>
+      </c>
+      <c r="B77" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="C77">
+        <v>62.5</v>
+      </c>
+      <c r="D77">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="F77" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="G77" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="H77">
+        <v>62.5</v>
+      </c>
+      <c r="I77">
+        <v>50</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>53.125</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U77" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z77" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="B78" s="1">
+        <v>57.142859999999999</v>
+      </c>
+      <c r="C78" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="D78" s="1">
+        <v>60</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>58.571429999999999</v>
+      </c>
+      <c r="F78" s="1">
+        <v>50</v>
+      </c>
+      <c r="G78" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="H78" s="1">
+        <v>100</v>
+      </c>
+      <c r="I78" s="1">
+        <v>60</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="1">
+        <v>7.6923079999999997</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>0</v>
+      </c>
+      <c r="R78" s="1">
+        <v>0</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U78" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z78" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43.75</v>
+      </c>
+      <c r="B79" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="C79">
+        <v>87.5</v>
+      </c>
+      <c r="D79">
+        <v>70</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>56.875</v>
+      </c>
+      <c r="F79" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="G79" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H79">
+        <v>75</v>
+      </c>
+      <c r="I79">
+        <v>90</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="6"/>
+        <v>71.875</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="1">
+        <v>7.6923079999999997</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U79" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z79" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="B80" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="C80" s="1">
+        <v>75</v>
+      </c>
+      <c r="D80" s="1">
+        <v>50</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>46.428570000000001</v>
+      </c>
+      <c r="F80" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="G80" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H80" s="1">
+        <v>100</v>
+      </c>
+      <c r="I80" s="1">
+        <v>50</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="6"/>
+        <v>53.125</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="1">
+        <v>7.6923079999999997</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>0</v>
+      </c>
+      <c r="R80" s="1">
+        <v>0</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U80" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z80" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="B81" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="C81">
+        <v>87.5</v>
+      </c>
+      <c r="D81">
+        <v>40</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="5"/>
+        <v>38.75</v>
+      </c>
+      <c r="F81" s="1">
+        <v>43.75</v>
+      </c>
+      <c r="G81" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H81">
+        <v>62.5</v>
+      </c>
+      <c r="I81">
+        <v>20</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="6"/>
+        <v>36.160714999999996</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="1">
+        <v>13.33333</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U81" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z81" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>50</v>
+      </c>
+      <c r="B82" s="1">
+        <v>71.428569999999993</v>
+      </c>
+      <c r="C82" s="1">
+        <v>50</v>
+      </c>
+      <c r="D82" s="1">
+        <v>60</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="F82" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="G82" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="H82" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="I82" s="1">
+        <v>40</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="6"/>
+        <v>41.428570000000001</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1">
+        <v>0</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>0</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U82" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z82" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="B83" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="C83">
+        <v>62.5</v>
+      </c>
+      <c r="D83">
+        <v>40</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="5"/>
+        <v>35.625</v>
+      </c>
+      <c r="F83" s="1">
+        <v>50</v>
+      </c>
+      <c r="G83" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="H83">
+        <v>75</v>
+      </c>
+      <c r="I83">
+        <v>40</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="6"/>
+        <v>46.428570000000001</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83" s="1">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U83" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z83" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="B84" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="C84" s="1">
+        <v>75</v>
+      </c>
+      <c r="D84" s="1">
+        <v>40</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="5"/>
+        <v>35.625</v>
+      </c>
+      <c r="F84" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="G84" s="1">
+        <v>57.142859999999999</v>
+      </c>
+      <c r="H84" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="I84" s="1">
+        <v>40</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="6"/>
+        <v>59.821429999999999</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1">
+        <v>0</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U84" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z84" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="C85">
+        <v>75</v>
+      </c>
+      <c r="D85">
+        <v>40</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="5"/>
+        <v>41.428570000000001</v>
+      </c>
+      <c r="F85" s="1">
+        <v>43.75</v>
+      </c>
+      <c r="G85" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="H85">
+        <v>37.5</v>
+      </c>
+      <c r="I85">
+        <v>50</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="6"/>
+        <v>43.303570000000001</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U85" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z85" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>25</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="C86" s="1">
+        <v>50</v>
+      </c>
+      <c r="D86" s="1">
+        <v>50</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="5"/>
+        <v>46.428570000000001</v>
+      </c>
+      <c r="F86" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="I86" s="1">
+        <v>20</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="6"/>
+        <v>16.25</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="1">
+        <v>16.66667</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>0</v>
+      </c>
+      <c r="R86" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="9"/>
+        <v>6.25</v>
+      </c>
+      <c r="U86" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z86" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="B87" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="C87">
+        <v>50</v>
+      </c>
+      <c r="D87">
+        <v>40</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="5"/>
+        <v>34.285714999999996</v>
+      </c>
+      <c r="F87" s="1">
+        <v>43.75</v>
+      </c>
+      <c r="G87" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="H87">
+        <v>50</v>
+      </c>
+      <c r="I87">
+        <v>20</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="6"/>
+        <v>31.875</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87" s="1">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U87" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z87" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="B88" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="C88" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="D88" s="1">
+        <v>30</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>30.625</v>
+      </c>
+      <c r="F88" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="G88" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="H88" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I88" s="1">
+        <v>60</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>0</v>
+      </c>
+      <c r="R88" s="1">
+        <v>0</v>
+      </c>
+      <c r="S88" s="1">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U88" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z88" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>25</v>
+      </c>
+      <c r="B89" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="C89">
+        <v>62.5</v>
+      </c>
+      <c r="D89">
+        <v>50</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="5"/>
+        <v>39.285714999999996</v>
+      </c>
+      <c r="F89" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="G89" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="H89">
+        <v>87.5</v>
+      </c>
+      <c r="I89">
+        <v>60</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="6"/>
+        <v>61.25</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U89" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z89" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="B90" s="1">
+        <v>71.428569999999993</v>
+      </c>
+      <c r="C90" s="1">
+        <v>75</v>
+      </c>
+      <c r="D90" s="1">
+        <v>50</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="5"/>
+        <v>60.714284999999997</v>
+      </c>
+      <c r="F90" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="G90" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H90" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="I90" s="1">
+        <v>50</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="6"/>
+        <v>53.125</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>0</v>
+      </c>
+      <c r="R90" s="1">
+        <v>0</v>
+      </c>
+      <c r="S90" s="1">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U90" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z90" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="B91" s="1">
+        <v>57.142859999999999</v>
+      </c>
+      <c r="C91">
+        <v>50</v>
+      </c>
+      <c r="D91">
+        <v>40</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="F91" s="1">
+        <v>43.75</v>
+      </c>
+      <c r="G91" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H91">
+        <v>62.5</v>
+      </c>
+      <c r="I91">
+        <v>60</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>51.875</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91" s="1">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U91" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z91" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="B92" s="1">
+        <v>57.142859999999999</v>
+      </c>
+      <c r="C92" s="1">
+        <v>25</v>
+      </c>
+      <c r="D92" s="1">
+        <v>30</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="5"/>
+        <v>30.625</v>
+      </c>
+      <c r="F92" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="G92" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="H92" s="1">
+        <v>75</v>
+      </c>
+      <c r="I92" s="1">
+        <v>80</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="6"/>
+        <v>71.875</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="1">
+        <v>15.38462</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="R92" s="1">
+        <v>0</v>
+      </c>
+      <c r="S92" s="1">
+        <v>11.11111</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="9"/>
+        <v>13.247865000000001</v>
+      </c>
+      <c r="U92" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z92" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43.75</v>
+      </c>
+      <c r="B93" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="C93">
+        <v>75</v>
+      </c>
+      <c r="D93">
+        <v>50</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="5"/>
+        <v>46.875</v>
+      </c>
+      <c r="F93" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="G93" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="H93">
+        <v>37.5</v>
+      </c>
+      <c r="I93">
+        <v>60</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="6"/>
+        <v>40.178570000000001</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U93" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z93" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>57.142859999999999</v>
+      </c>
+      <c r="C94" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="D94" s="1">
+        <v>40</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="5"/>
+        <v>48.571429999999999</v>
+      </c>
+      <c r="F94" s="1">
+        <v>50</v>
+      </c>
+      <c r="G94" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H94" s="1">
+        <v>75</v>
+      </c>
+      <c r="I94" s="1">
+        <v>50</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>0</v>
+      </c>
+      <c r="R94" s="1">
+        <v>0</v>
+      </c>
+      <c r="S94" s="1">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U94" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z94" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="C95">
+        <v>62.5</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="5"/>
+        <v>46.428570000000001</v>
+      </c>
+      <c r="F95" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="G95" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H95">
+        <v>62.5</v>
+      </c>
+      <c r="I95">
+        <v>50</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="6"/>
+        <v>56.25</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="1">
+        <v>8.3333329999999997</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U95" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z95" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>57.142859999999999</v>
+      </c>
+      <c r="C96" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>60</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="5"/>
+        <v>58.571429999999999</v>
+      </c>
+      <c r="F96" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="G96" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="H96" s="1">
+        <v>50</v>
+      </c>
+      <c r="I96" s="1">
+        <v>50</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="6"/>
+        <v>43.75</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="R96" s="1">
+        <v>0</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U96" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z96" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="C97">
+        <v>87.5</v>
+      </c>
+      <c r="D97">
+        <v>50</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="5"/>
+        <v>43.75</v>
+      </c>
+      <c r="F97" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="G97" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="H97">
+        <v>62.5</v>
+      </c>
+      <c r="I97">
+        <v>70</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U97" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z97" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="B98" s="1">
+        <v>57.142859999999999</v>
+      </c>
+      <c r="C98" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="D98" s="1">
+        <v>60</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="5"/>
+        <v>58.571429999999999</v>
+      </c>
+      <c r="F98" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="G98" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H98" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="I98" s="1">
+        <v>70</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="6"/>
+        <v>66.25</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="1">
+        <v>7.6923079999999997</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="R98" s="1">
+        <v>0</v>
+      </c>
+      <c r="S98" s="1">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="9"/>
+        <v>3.8461539999999999</v>
+      </c>
+      <c r="U98" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z98" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="C99">
+        <v>50</v>
+      </c>
+      <c r="D99">
+        <v>50</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="5"/>
+        <v>46.428570000000001</v>
+      </c>
+      <c r="F99" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="G99" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="H99">
+        <v>25</v>
+      </c>
+      <c r="I99">
+        <v>30</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="6"/>
+        <v>27.5</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P99" s="1">
+        <v>7.1428570000000002</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U99" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z99" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="C100" s="1">
+        <v>25</v>
+      </c>
+      <c r="D100" s="1">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="5"/>
+        <v>22.5</v>
+      </c>
+      <c r="F100" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="G100" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H100" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="I100" s="1">
+        <v>40</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="6"/>
+        <v>38.75</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0</v>
+      </c>
+      <c r="N100" s="1">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P100" s="1">
+        <v>13.33333</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="R100" s="1">
+        <v>0</v>
+      </c>
+      <c r="S100" s="1">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="9"/>
+        <v>6.6666650000000001</v>
+      </c>
+      <c r="U100" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z100" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>25</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="C101">
+        <v>37.5</v>
+      </c>
+      <c r="D101">
+        <v>30</v>
+      </c>
+      <c r="E101">
         <f t="shared" si="5"/>
         <v>33.75</v>
       </c>
-      <c r="K69" s="1">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
+      <c r="F101" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="G101" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H101">
+        <v>50</v>
+      </c>
+      <c r="I101">
+        <v>50</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P69" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>8.3333329999999997</v>
-      </c>
-      <c r="R69" s="1">
+        <v>40.625</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P101" s="1">
+        <v>6.6666670000000003</v>
+      </c>
+      <c r="Q101" s="1">
         <v>14.28571</v>
       </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69" s="1">
-        <v>22.22222</v>
-      </c>
-      <c r="U69">
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101" s="1">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="9"/>
+        <v>3.3333335000000002</v>
+      </c>
+      <c r="U101" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z101" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="B102" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="C102" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="D102" s="1">
+        <v>40</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="5"/>
+        <v>35.625</v>
+      </c>
+      <c r="F102" s="1">
+        <v>43.75</v>
+      </c>
+      <c r="G102" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H102" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="I102" s="1">
+        <v>50</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="6"/>
+        <v>46.875</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0</v>
+      </c>
+      <c r="O102">
         <f t="shared" si="7"/>
-        <v>11.309521499999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>56.25</v>
-      </c>
-      <c r="B70" s="1">
-        <v>57.142859999999999</v>
-      </c>
-      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P102" s="1">
+        <v>7.1428570000000002</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="R102" s="1">
+        <v>0</v>
+      </c>
+      <c r="S102" s="1">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="9"/>
+        <v>3.5714285000000001</v>
+      </c>
+      <c r="U102" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z102" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="B103" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="C103">
+        <v>50</v>
+      </c>
+      <c r="D103">
+        <v>50</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="5"/>
+        <v>46.428570000000001</v>
+      </c>
+      <c r="F103" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="G103" s="1">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="H103">
+        <v>50</v>
+      </c>
+      <c r="I103">
+        <v>50</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="6"/>
+        <v>40.625</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103" s="1">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U103" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z103" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
         <v>37.5</v>
       </c>
-      <c r="D70" s="1">
+      <c r="B104" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="C104" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="D104" s="1">
         <v>40</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="4"/>
-        <v>48.125</v>
-      </c>
-      <c r="F70" s="1">
-        <v>56.25</v>
-      </c>
-      <c r="G70" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="H70" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="I70" s="1">
-        <v>40</v>
-      </c>
-      <c r="J70">
+      <c r="E104">
         <f t="shared" si="5"/>
         <v>41.428570000000001</v>
       </c>
-      <c r="K70" s="1">
-        <v>0</v>
-      </c>
-      <c r="L70" s="1">
-        <v>0</v>
-      </c>
-      <c r="M70" s="1">
-        <v>0</v>
-      </c>
-      <c r="N70" s="1">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P70" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>6.25</v>
-      </c>
-      <c r="R70" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="S70" s="1">
-        <v>0</v>
-      </c>
-      <c r="T70" s="1">
-        <v>11.11111</v>
-      </c>
-      <c r="U70">
-        <f t="shared" si="7"/>
-        <v>8.680555</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>25</v>
-      </c>
-      <c r="B71" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="C71">
-        <v>25</v>
-      </c>
-      <c r="D71">
-        <v>40</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="4"/>
-        <v>26.785715</v>
-      </c>
-      <c r="F71" s="1">
-        <v>25</v>
-      </c>
-      <c r="G71" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="H71">
-        <v>37.5</v>
-      </c>
-      <c r="I71">
-        <v>40</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="5"/>
-        <v>31.25</v>
-      </c>
-      <c r="K71" s="1">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P71" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>16.66667</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>12.5</v>
-      </c>
-      <c r="T71" s="1">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <f t="shared" si="7"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>18.75</v>
-      </c>
-      <c r="B72" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="C72" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="D72" s="1">
-        <v>20</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="4"/>
-        <v>16.517855000000001</v>
-      </c>
-      <c r="F72" s="1">
-        <v>25</v>
-      </c>
-      <c r="G72" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="H72" s="1">
-        <v>25</v>
-      </c>
-      <c r="I72" s="1">
-        <v>60</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="K72" s="1">
-        <v>0</v>
-      </c>
-      <c r="L72" s="1">
-        <v>0</v>
-      </c>
-      <c r="M72" t="s">
-        <v>122</v>
-      </c>
-      <c r="N72" s="1">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P72" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72" s="1">
-        <v>0</v>
-      </c>
-      <c r="T72" s="1">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="B73" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="C73">
-        <v>50</v>
-      </c>
-      <c r="D73">
-        <v>50</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="4"/>
-        <v>43.75</v>
-      </c>
-      <c r="F73" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="G73" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="H73">
-        <v>37.5</v>
-      </c>
-      <c r="I73">
-        <v>50</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="5"/>
-        <v>40.178570000000001</v>
-      </c>
-      <c r="K73" s="1">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P73" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73" s="1">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>68.75</v>
-      </c>
-      <c r="B74" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="C74" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="D74" s="1">
-        <v>50</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="4"/>
-        <v>56.25</v>
-      </c>
-      <c r="F74" s="1">
-        <v>25</v>
-      </c>
-      <c r="G74" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H74" s="1">
-        <v>25</v>
-      </c>
-      <c r="I74" s="1">
-        <v>40</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="5"/>
-        <v>26.785715</v>
-      </c>
-      <c r="K74" s="1">
-        <v>0</v>
-      </c>
-      <c r="L74" s="1">
-        <v>0</v>
-      </c>
-      <c r="M74" s="1">
-        <v>0</v>
-      </c>
-      <c r="N74" s="1">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P74" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>0</v>
-      </c>
-      <c r="R74" s="1">
-        <v>0</v>
-      </c>
-      <c r="S74" s="1">
-        <v>0</v>
-      </c>
-      <c r="T74" s="1">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="B75" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="C75">
-        <v>62.5</v>
-      </c>
-      <c r="D75">
-        <v>50</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="4"/>
-        <v>40.625</v>
-      </c>
-      <c r="F75" s="1">
-        <v>56.25</v>
-      </c>
-      <c r="G75" s="1">
-        <v>57.142859999999999</v>
-      </c>
-      <c r="H75">
-        <v>62.5</v>
-      </c>
-      <c r="I75">
-        <v>60</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="5"/>
-        <v>58.571429999999999</v>
-      </c>
-      <c r="K75" s="1">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P75" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q75" s="1">
-        <v>7.6923079999999997</v>
-      </c>
-      <c r="R75" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75" s="1">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <f t="shared" si="7"/>
-        <v>3.8461539999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="B76" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="C76" s="1">
-        <v>50</v>
-      </c>
-      <c r="D76" s="1">
-        <v>50</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="4"/>
-        <v>43.75</v>
-      </c>
-      <c r="F76" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="G76" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H76" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="I76" s="1">
-        <v>20</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="5"/>
-        <v>16.25</v>
-      </c>
-      <c r="K76" s="1">
-        <v>0</v>
-      </c>
-      <c r="L76" s="1">
-        <v>0</v>
-      </c>
-      <c r="M76" s="1">
-        <v>0</v>
-      </c>
-      <c r="N76" s="1">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P76" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>7.1428570000000002</v>
-      </c>
-      <c r="R76" s="1">
-        <v>0</v>
-      </c>
-      <c r="S76" s="1">
-        <v>0</v>
-      </c>
-      <c r="T76" s="1">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>50</v>
-      </c>
-      <c r="B77" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="C77">
-        <v>62.5</v>
-      </c>
-      <c r="D77">
-        <v>40</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="F77" s="1">
-        <v>56.25</v>
-      </c>
-      <c r="G77" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="H77">
-        <v>62.5</v>
-      </c>
-      <c r="I77">
-        <v>50</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="5"/>
-        <v>53.125</v>
-      </c>
-      <c r="K77" s="1">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P77" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q77" s="1">
-        <v>0</v>
-      </c>
-      <c r="R77" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77" s="1">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>56.25</v>
-      </c>
-      <c r="B78" s="1">
-        <v>57.142859999999999</v>
-      </c>
-      <c r="C78" s="1">
-        <v>87.5</v>
-      </c>
-      <c r="D78" s="1">
-        <v>60</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="4"/>
-        <v>58.571429999999999</v>
-      </c>
-      <c r="F78" s="1">
-        <v>50</v>
-      </c>
-      <c r="G78" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="H78" s="1">
-        <v>100</v>
-      </c>
-      <c r="I78" s="1">
-        <v>60</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="K78" s="1">
-        <v>0</v>
-      </c>
-      <c r="L78" s="1">
-        <v>0</v>
-      </c>
-      <c r="M78" s="1">
-        <v>0</v>
-      </c>
-      <c r="N78" s="1">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P78" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q78" s="1">
-        <v>7.6923079999999997</v>
-      </c>
-      <c r="R78" s="1">
-        <v>0</v>
-      </c>
-      <c r="S78" s="1">
-        <v>0</v>
-      </c>
-      <c r="T78" s="1">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="B79" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="C79">
-        <v>87.5</v>
-      </c>
-      <c r="D79">
-        <v>70</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="4"/>
-        <v>56.875</v>
-      </c>
-      <c r="F79" s="1">
-        <v>68.75</v>
-      </c>
-      <c r="G79" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H79">
-        <v>75</v>
-      </c>
-      <c r="I79">
-        <v>90</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="5"/>
-        <v>71.875</v>
-      </c>
-      <c r="K79" s="1">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P79" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>7.6923079999999997</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79" s="1">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="B80" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="C80" s="1">
-        <v>75</v>
-      </c>
-      <c r="D80" s="1">
-        <v>50</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="4"/>
-        <v>46.428570000000001</v>
-      </c>
-      <c r="F80" s="1">
-        <v>56.25</v>
-      </c>
-      <c r="G80" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H80" s="1">
-        <v>100</v>
-      </c>
-      <c r="I80" s="1">
-        <v>50</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="5"/>
-        <v>53.125</v>
-      </c>
-      <c r="K80" s="1">
-        <v>0</v>
-      </c>
-      <c r="L80" s="1">
-        <v>0</v>
-      </c>
-      <c r="M80" s="1">
-        <v>0</v>
-      </c>
-      <c r="N80" s="1">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P80" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q80" s="1">
-        <v>7.6923079999999997</v>
-      </c>
-      <c r="R80" s="1">
-        <v>0</v>
-      </c>
-      <c r="S80" s="1">
-        <v>0</v>
-      </c>
-      <c r="T80" s="1">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="B81" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="C81">
-        <v>87.5</v>
-      </c>
-      <c r="D81">
-        <v>40</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="4"/>
-        <v>38.75</v>
-      </c>
-      <c r="F81" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="G81" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H81">
-        <v>62.5</v>
-      </c>
-      <c r="I81">
-        <v>20</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="5"/>
-        <v>36.160714999999996</v>
-      </c>
-      <c r="K81" s="1">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P81" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q81" s="1">
-        <v>13.33333</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81" s="1">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>50</v>
-      </c>
-      <c r="B82" s="1">
-        <v>71.428569999999993</v>
-      </c>
-      <c r="C82" s="1">
-        <v>50</v>
-      </c>
-      <c r="D82" s="1">
-        <v>60</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="F82" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="G82" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="H82" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="I82" s="1">
-        <v>40</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="5"/>
-        <v>41.428570000000001</v>
-      </c>
-      <c r="K82" s="1">
-        <v>0</v>
-      </c>
-      <c r="L82" s="1">
-        <v>0</v>
-      </c>
-      <c r="M82" s="1">
-        <v>0</v>
-      </c>
-      <c r="N82" s="1">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P82" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>0</v>
-      </c>
-      <c r="R82" s="1">
-        <v>0</v>
-      </c>
-      <c r="S82" s="1">
-        <v>0</v>
-      </c>
-      <c r="T82" s="1">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="B83" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="C83">
-        <v>62.5</v>
-      </c>
-      <c r="D83">
-        <v>40</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="4"/>
-        <v>35.625</v>
-      </c>
-      <c r="F83" s="1">
-        <v>50</v>
-      </c>
-      <c r="G83" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="H83">
-        <v>75</v>
-      </c>
-      <c r="I83">
-        <v>40</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="5"/>
-        <v>46.428570000000001</v>
-      </c>
-      <c r="K83" s="1">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P83" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q83" s="1">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83" s="1">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="B84" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="C84" s="1">
-        <v>75</v>
-      </c>
-      <c r="D84" s="1">
-        <v>40</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="4"/>
-        <v>35.625</v>
-      </c>
-      <c r="F84" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="G84" s="1">
-        <v>57.142859999999999</v>
-      </c>
-      <c r="H84" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="I84" s="1">
-        <v>40</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="5"/>
-        <v>59.821429999999999</v>
-      </c>
-      <c r="K84" s="1">
-        <v>0</v>
-      </c>
-      <c r="L84" s="1">
-        <v>0</v>
-      </c>
-      <c r="M84" s="1">
-        <v>0</v>
-      </c>
-      <c r="N84" s="1">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P84" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q84" s="1">
-        <v>0</v>
-      </c>
-      <c r="R84" s="1">
-        <v>0</v>
-      </c>
-      <c r="S84" s="1">
-        <v>0</v>
-      </c>
-      <c r="T84" s="1">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="B85" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="C85">
-        <v>75</v>
-      </c>
-      <c r="D85">
-        <v>40</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="4"/>
-        <v>41.428570000000001</v>
-      </c>
-      <c r="F85" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="G85" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="H85">
-        <v>37.5</v>
-      </c>
-      <c r="I85">
-        <v>50</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="5"/>
-        <v>43.303570000000001</v>
-      </c>
-      <c r="K85" s="1">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P85" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q85" s="1">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85" s="1">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>25</v>
-      </c>
-      <c r="B86" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="C86" s="1">
-        <v>50</v>
-      </c>
-      <c r="D86" s="1">
-        <v>50</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="4"/>
-        <v>46.428570000000001</v>
-      </c>
-      <c r="F86" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0</v>
-      </c>
-      <c r="H86" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="I86" s="1">
-        <v>20</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="5"/>
-        <v>16.25</v>
-      </c>
-      <c r="K86" s="1">
-        <v>0</v>
-      </c>
-      <c r="L86" s="1">
-        <v>0</v>
-      </c>
-      <c r="M86" s="1">
-        <v>0</v>
-      </c>
-      <c r="N86" s="1">
-        <v>0</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P86" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q86" s="1">
-        <v>16.66667</v>
-      </c>
-      <c r="R86" s="1">
-        <v>0</v>
-      </c>
-      <c r="S86" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="T86" s="1">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <f t="shared" si="7"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>18.75</v>
-      </c>
-      <c r="B87" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="C87">
-        <v>50</v>
-      </c>
-      <c r="D87">
-        <v>40</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="4"/>
-        <v>34.285714999999996</v>
-      </c>
-      <c r="F87" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="G87" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="H87">
-        <v>50</v>
-      </c>
-      <c r="I87">
-        <v>20</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="5"/>
-        <v>31.875</v>
-      </c>
-      <c r="K87" s="1">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P87" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q87" s="1">
-        <v>0</v>
-      </c>
-      <c r="R87" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-      <c r="T87" s="1">
-        <v>0</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="B88" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="C88" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="D88" s="1">
-        <v>30</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="4"/>
-        <v>30.625</v>
-      </c>
-      <c r="F88" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="G88" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="H88" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="I88" s="1">
-        <v>60</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="5"/>
-        <v>37.5</v>
-      </c>
-      <c r="K88" s="1">
-        <v>0</v>
-      </c>
-      <c r="L88" s="1">
-        <v>0</v>
-      </c>
-      <c r="M88" s="1">
-        <v>0</v>
-      </c>
-      <c r="N88" s="1">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P88" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q88" s="1">
-        <v>0</v>
-      </c>
-      <c r="R88" s="1">
-        <v>0</v>
-      </c>
-      <c r="S88" s="1">
-        <v>0</v>
-      </c>
-      <c r="T88" s="1">
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>25</v>
-      </c>
-      <c r="B89" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="C89">
-        <v>62.5</v>
-      </c>
-      <c r="D89">
-        <v>50</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="4"/>
-        <v>39.285714999999996</v>
-      </c>
-      <c r="F89" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="G89" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="H89">
-        <v>87.5</v>
-      </c>
-      <c r="I89">
-        <v>60</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="5"/>
-        <v>61.25</v>
-      </c>
-      <c r="K89" s="1">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P89" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q89" s="1">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89" s="1">
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="B90" s="1">
-        <v>71.428569999999993</v>
-      </c>
-      <c r="C90" s="1">
-        <v>75</v>
-      </c>
-      <c r="D90" s="1">
-        <v>50</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="4"/>
-        <v>60.714284999999997</v>
-      </c>
-      <c r="F90" s="1">
-        <v>56.25</v>
-      </c>
-      <c r="G90" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H90" s="1">
-        <v>87.5</v>
-      </c>
-      <c r="I90" s="1">
-        <v>50</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="5"/>
-        <v>53.125</v>
-      </c>
-      <c r="K90" s="1">
-        <v>0</v>
-      </c>
-      <c r="L90" s="1">
-        <v>0</v>
-      </c>
-      <c r="M90" s="1">
-        <v>0</v>
-      </c>
-      <c r="N90" s="1">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P90" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q90" s="1">
-        <v>0</v>
-      </c>
-      <c r="R90" s="1">
-        <v>0</v>
-      </c>
-      <c r="S90" s="1">
-        <v>0</v>
-      </c>
-      <c r="T90" s="1">
-        <v>0</v>
-      </c>
-      <c r="U90">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="B91" s="1">
-        <v>57.142859999999999</v>
-      </c>
-      <c r="C91">
-        <v>50</v>
-      </c>
-      <c r="D91">
-        <v>40</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="F91" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="G91" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H91">
-        <v>62.5</v>
-      </c>
-      <c r="I91">
-        <v>60</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="5"/>
-        <v>51.875</v>
-      </c>
-      <c r="K91" s="1">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P91" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q91" s="1">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
-      <c r="T91" s="1">
-        <v>0</v>
-      </c>
-      <c r="U91">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="B92" s="1">
-        <v>57.142859999999999</v>
-      </c>
-      <c r="C92" s="1">
-        <v>25</v>
-      </c>
-      <c r="D92" s="1">
-        <v>30</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="4"/>
-        <v>30.625</v>
-      </c>
-      <c r="F92" s="1">
-        <v>68.75</v>
-      </c>
-      <c r="G92" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="H92" s="1">
-        <v>75</v>
-      </c>
-      <c r="I92" s="1">
-        <v>80</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="5"/>
-        <v>71.875</v>
-      </c>
-      <c r="K92" s="1">
-        <v>0</v>
-      </c>
-      <c r="L92" s="1">
-        <v>0</v>
-      </c>
-      <c r="M92" s="1">
-        <v>0</v>
-      </c>
-      <c r="N92" s="1">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P92" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q92" s="1">
-        <v>15.38462</v>
-      </c>
-      <c r="R92" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="S92" s="1">
-        <v>0</v>
-      </c>
-      <c r="T92" s="1">
-        <v>11.11111</v>
-      </c>
-      <c r="U92">
-        <f t="shared" si="7"/>
-        <v>13.247865000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="B93" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="C93">
-        <v>75</v>
-      </c>
-      <c r="D93">
-        <v>50</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="4"/>
-        <v>46.875</v>
-      </c>
-      <c r="F93" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="G93" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="H93">
-        <v>37.5</v>
-      </c>
-      <c r="I93">
-        <v>60</v>
-      </c>
-      <c r="J93">
-        <f t="shared" si="5"/>
-        <v>40.178570000000001</v>
-      </c>
-      <c r="K93" s="1">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P93" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q93" s="1">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
-      <c r="T93" s="1">
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="B94" s="1">
-        <v>57.142859999999999</v>
-      </c>
-      <c r="C94" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="D94" s="1">
-        <v>40</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="4"/>
-        <v>48.571429999999999</v>
-      </c>
-      <c r="F94" s="1">
-        <v>50</v>
-      </c>
-      <c r="G94" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H94" s="1">
-        <v>75</v>
-      </c>
-      <c r="I94" s="1">
-        <v>50</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="K94" s="1">
-        <v>0</v>
-      </c>
-      <c r="L94" s="1">
-        <v>0</v>
-      </c>
-      <c r="M94" s="1">
-        <v>0</v>
-      </c>
-      <c r="N94" s="1">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P94" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q94" s="1">
-        <v>0</v>
-      </c>
-      <c r="R94" s="1">
-        <v>0</v>
-      </c>
-      <c r="S94" s="1">
-        <v>0</v>
-      </c>
-      <c r="T94" s="1">
-        <v>0</v>
-      </c>
-      <c r="U94">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="B95" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="C95">
-        <v>62.5</v>
-      </c>
-      <c r="D95">
-        <v>50</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="4"/>
-        <v>46.428570000000001</v>
-      </c>
-      <c r="F95" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="G95" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H95">
-        <v>62.5</v>
-      </c>
-      <c r="I95">
-        <v>50</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="5"/>
-        <v>56.25</v>
-      </c>
-      <c r="K95" s="1">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P95" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q95" s="1">
-        <v>8.3333329999999997</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
-      <c r="T95" s="1">
-        <v>0</v>
-      </c>
-      <c r="U95">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="B96" s="1">
-        <v>57.142859999999999</v>
-      </c>
-      <c r="C96" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="D96" s="1">
-        <v>60</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="4"/>
-        <v>58.571429999999999</v>
-      </c>
-      <c r="F96" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="G96" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="H96" s="1">
-        <v>50</v>
-      </c>
-      <c r="I96" s="1">
-        <v>50</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="5"/>
-        <v>43.75</v>
-      </c>
-      <c r="K96" s="1">
-        <v>0</v>
-      </c>
-      <c r="L96" s="1">
-        <v>0</v>
-      </c>
-      <c r="M96" s="1">
-        <v>0</v>
-      </c>
-      <c r="N96" s="1">
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P96" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q96" s="1">
-        <v>0</v>
-      </c>
-      <c r="R96" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="S96" s="1">
-        <v>0</v>
-      </c>
-      <c r="T96" s="1">
-        <v>0</v>
-      </c>
-      <c r="U96">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="B97" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="C97">
-        <v>87.5</v>
-      </c>
-      <c r="D97">
-        <v>50</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="4"/>
-        <v>43.75</v>
-      </c>
-      <c r="F97" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="G97" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="H97">
-        <v>62.5</v>
-      </c>
-      <c r="I97">
-        <v>70</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="K97" s="1">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>0</v>
-      </c>
-      <c r="O97">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P97" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q97" s="1">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
-      <c r="T97" s="1">
-        <v>0</v>
-      </c>
-      <c r="U97">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>56.25</v>
-      </c>
-      <c r="B98" s="1">
-        <v>57.142859999999999</v>
-      </c>
-      <c r="C98" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="D98" s="1">
-        <v>60</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="4"/>
-        <v>58.571429999999999</v>
-      </c>
-      <c r="F98" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="G98" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H98" s="1">
-        <v>87.5</v>
-      </c>
-      <c r="I98" s="1">
-        <v>70</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="5"/>
-        <v>66.25</v>
-      </c>
-      <c r="K98" s="1">
-        <v>0</v>
-      </c>
-      <c r="L98" s="1">
-        <v>0</v>
-      </c>
-      <c r="M98" s="1">
-        <v>0</v>
-      </c>
-      <c r="N98" s="1">
-        <v>0</v>
-      </c>
-      <c r="O98">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P98" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q98" s="1">
-        <v>7.6923079999999997</v>
-      </c>
-      <c r="R98" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="S98" s="1">
-        <v>0</v>
-      </c>
-      <c r="T98" s="1">
-        <v>0</v>
-      </c>
-      <c r="U98">
-        <f t="shared" si="7"/>
-        <v>3.8461539999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="B99" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="C99">
-        <v>50</v>
-      </c>
-      <c r="D99">
-        <v>50</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="4"/>
-        <v>46.428570000000001</v>
-      </c>
-      <c r="F99" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="G99" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="H99">
-        <v>25</v>
-      </c>
-      <c r="I99">
-        <v>30</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="5"/>
-        <v>27.5</v>
-      </c>
-      <c r="K99" s="1">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="N99">
-        <v>0</v>
-      </c>
-      <c r="O99">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P99" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q99" s="1">
-        <v>7.1428570000000002</v>
-      </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-      <c r="S99">
-        <v>0</v>
-      </c>
-      <c r="T99" s="1">
-        <v>0</v>
-      </c>
-      <c r="U99">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>18.75</v>
-      </c>
-      <c r="B100" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="C100" s="1">
-        <v>25</v>
-      </c>
-      <c r="D100" s="1">
-        <v>20</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="4"/>
-        <v>22.5</v>
-      </c>
-      <c r="F100" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="G100" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H100" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="I100" s="1">
-        <v>40</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="5"/>
-        <v>38.75</v>
-      </c>
-      <c r="K100" s="1">
-        <v>0</v>
-      </c>
-      <c r="L100" s="1">
-        <v>0</v>
-      </c>
-      <c r="M100" s="1">
-        <v>0</v>
-      </c>
-      <c r="N100" s="1">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P100" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q100" s="1">
-        <v>13.33333</v>
-      </c>
-      <c r="R100" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="S100" s="1">
-        <v>0</v>
-      </c>
-      <c r="T100" s="1">
-        <v>0</v>
-      </c>
-      <c r="U100">
-        <f t="shared" si="7"/>
-        <v>6.6666650000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>25</v>
-      </c>
-      <c r="B101" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="C101">
-        <v>37.5</v>
-      </c>
-      <c r="D101">
-        <v>30</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="4"/>
-        <v>33.75</v>
-      </c>
-      <c r="F101" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="G101" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H101">
-        <v>50</v>
-      </c>
-      <c r="I101">
-        <v>50</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="5"/>
-        <v>40.625</v>
-      </c>
-      <c r="K101" s="1">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P101" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q101" s="1">
-        <v>6.6666670000000003</v>
-      </c>
-      <c r="R101" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="S101">
-        <v>0</v>
-      </c>
-      <c r="T101" s="1">
-        <v>0</v>
-      </c>
-      <c r="U101">
-        <f t="shared" si="7"/>
-        <v>3.3333335000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="B102" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="C102" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="D102" s="1">
-        <v>40</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="4"/>
-        <v>35.625</v>
-      </c>
-      <c r="F102" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="G102" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H102" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="I102" s="1">
-        <v>50</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="5"/>
-        <v>46.875</v>
-      </c>
-      <c r="K102" s="1">
-        <v>0</v>
-      </c>
-      <c r="L102" s="1">
-        <v>0</v>
-      </c>
-      <c r="M102" s="1">
-        <v>0</v>
-      </c>
-      <c r="N102" s="1">
-        <v>0</v>
-      </c>
-      <c r="O102">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P102" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q102" s="1">
-        <v>7.1428570000000002</v>
-      </c>
-      <c r="R102" s="1">
-        <v>14.28571</v>
-      </c>
-      <c r="S102" s="1">
-        <v>0</v>
-      </c>
-      <c r="T102" s="1">
-        <v>0</v>
-      </c>
-      <c r="U102">
-        <f t="shared" si="7"/>
-        <v>3.5714285000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="B103" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="C103">
-        <v>50</v>
-      </c>
-      <c r="D103">
-        <v>50</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="4"/>
-        <v>46.428570000000001</v>
-      </c>
-      <c r="F103" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="G103" s="1">
-        <v>28.571429999999999</v>
-      </c>
-      <c r="H103">
-        <v>50</v>
-      </c>
-      <c r="I103">
-        <v>50</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="5"/>
-        <v>40.625</v>
-      </c>
-      <c r="K103" s="1">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P103" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q103" s="1">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-      <c r="S103">
-        <v>0</v>
-      </c>
-      <c r="T103" s="1">
-        <v>0</v>
-      </c>
-      <c r="U103">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="B104" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="C104" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="D104" s="1">
-        <v>40</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="4"/>
-        <v>41.428570000000001</v>
-      </c>
       <c r="F104" s="1">
         <v>50</v>
       </c>
@@ -7714,7 +8157,7 @@
         <v>40</v>
       </c>
       <c r="J104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46.428570000000001</v>
       </c>
       <c r="K104" s="1">
@@ -7730,30 +8173,34 @@
         <v>0</v>
       </c>
       <c r="O104">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P104" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P104" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>0</v>
+      </c>
+      <c r="R104" s="1">
+        <v>0</v>
+      </c>
+      <c r="S104" s="1">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U104" t="s">
         <v>107</v>
       </c>
-      <c r="Q104" s="1">
-        <v>0</v>
-      </c>
-      <c r="R104" s="1">
-        <v>0</v>
-      </c>
-      <c r="S104" s="1">
-        <v>0</v>
-      </c>
-      <c r="T104" s="1">
-        <v>0</v>
-      </c>
-      <c r="U104">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z104" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>18.75</v>
       </c>
@@ -7767,7 +8214,7 @@
         <v>10</v>
       </c>
       <c r="E105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.375</v>
       </c>
       <c r="F105" s="1">
@@ -7783,7 +8230,7 @@
         <v>10</v>
       </c>
       <c r="J105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.910715</v>
       </c>
       <c r="K105" s="1">
@@ -7799,30 +8246,34 @@
         <v>0</v>
       </c>
       <c r="O105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P105" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P105" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105" s="1">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U105" t="s">
         <v>108</v>
       </c>
-      <c r="Q105" s="1">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-      <c r="S105">
-        <v>0</v>
-      </c>
-      <c r="T105" s="1">
-        <v>0</v>
-      </c>
-      <c r="U105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z105" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>18.75</v>
       </c>
@@ -7836,7 +8287,7 @@
         <v>20</v>
       </c>
       <c r="E106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.375</v>
       </c>
       <c r="F106" s="1">
@@ -7852,7 +8303,7 @@
         <v>30</v>
       </c>
       <c r="J106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.5</v>
       </c>
       <c r="K106" s="1">
@@ -7868,30 +8319,34 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P106" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P106" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>0</v>
+      </c>
+      <c r="R106" s="1">
+        <v>0</v>
+      </c>
+      <c r="S106" s="1">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U106" t="s">
         <v>109</v>
       </c>
-      <c r="Q106" s="1">
-        <v>0</v>
-      </c>
-      <c r="R106" s="1">
-        <v>0</v>
-      </c>
-      <c r="S106" s="1">
-        <v>0</v>
-      </c>
-      <c r="T106" s="1">
-        <v>0</v>
-      </c>
-      <c r="U106">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z106" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>18.75</v>
       </c>
@@ -7905,7 +8360,7 @@
         <v>20</v>
       </c>
       <c r="E107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.375</v>
       </c>
       <c r="F107" s="1">
@@ -7921,7 +8376,7 @@
         <v>30</v>
       </c>
       <c r="J107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.75</v>
       </c>
       <c r="K107" s="1">
@@ -7937,27 +8392,31 @@
         <v>0</v>
       </c>
       <c r="O107">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P107" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P107" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U107" t="s">
         <v>110</v>
       </c>
-      <c r="Q107" s="1">
-        <v>0</v>
-      </c>
-      <c r="R107" s="1">
-        <v>42.857140000000001</v>
-      </c>
-      <c r="S107">
-        <v>0</v>
-      </c>
-      <c r="T107">
-        <v>0</v>
-      </c>
-      <c r="U107">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="Z107" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/genomic_range/results/Sensitivity_Table.xlsx
+++ b/genomic_range/results/Sensitivity_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mei/Desktop/benchmarks/genomic_range/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajni\Desktop\benchmarks\genomic_range\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ADCC3E-D056-3E43-BB2F-3CA06A4CB355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797C8AC8-D1E2-487D-BBEB-4DB2A1CE91B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17260" yWindow="460" windowWidth="18060" windowHeight="26780" xr2:uid="{9FDEA6EF-D5C4-7F45-96BD-DB608973E662}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9FDEA6EF-D5C4-7F45-96BD-DB608973E662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Chipenrich_Colorectal_Cancer</t>
   </si>
@@ -43,327 +43,6 @@
   </si>
   <si>
     <t>Chipenrich_Prostate_Cancer</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>GSM1847178</t>
-  </si>
-  <si>
-    <t>GSE84618</t>
-  </si>
-  <si>
-    <t>GSM2283764</t>
-  </si>
-  <si>
-    <t>GSM2283765</t>
-  </si>
-  <si>
-    <t>GSM2283766</t>
-  </si>
-  <si>
-    <t>GSM2283767</t>
-  </si>
-  <si>
-    <t>GSM2283768</t>
-  </si>
-  <si>
-    <t>GSM2283769</t>
-  </si>
-  <si>
-    <t>GSM2283770</t>
-  </si>
-  <si>
-    <t>GSM2283771</t>
-  </si>
-  <si>
-    <t>GSM2283772</t>
-  </si>
-  <si>
-    <t>GSM2283773</t>
-  </si>
-  <si>
-    <t>GSM2283774</t>
-  </si>
-  <si>
-    <t>GSM2283775</t>
-  </si>
-  <si>
-    <t>GSM2101436</t>
-  </si>
-  <si>
-    <t>GSM2101437</t>
-  </si>
-  <si>
-    <t>GSM2752893</t>
-  </si>
-  <si>
-    <t>GSM2101438</t>
-  </si>
-  <si>
-    <t>GSM2101439</t>
-  </si>
-  <si>
-    <t>GSM2752894</t>
-  </si>
-  <si>
-    <t>GSM2752897</t>
-  </si>
-  <si>
-    <t>GSM2752898</t>
-  </si>
-  <si>
-    <t>GSM2752899</t>
-  </si>
-  <si>
-    <t>GSM2752900</t>
-  </si>
-  <si>
-    <t>GSM2752901</t>
-  </si>
-  <si>
-    <t>GSM2752895</t>
-  </si>
-  <si>
-    <t>GSM2298950</t>
-  </si>
-  <si>
-    <t>GSM2058015</t>
-  </si>
-  <si>
-    <t>GSM2058016</t>
-  </si>
-  <si>
-    <t>GSM2058017</t>
-  </si>
-  <si>
-    <t>GSM2058018</t>
-  </si>
-  <si>
-    <t>GSM2058019</t>
-  </si>
-  <si>
-    <t>GSM2058020</t>
-  </si>
-  <si>
-    <t>GSM2058021</t>
-  </si>
-  <si>
-    <t>GSM2058022</t>
-  </si>
-  <si>
-    <t>GSM2058023</t>
-  </si>
-  <si>
-    <t>GSM2058024</t>
-  </si>
-  <si>
-    <t>GSM2058025</t>
-  </si>
-  <si>
-    <t>GSM2058026</t>
-  </si>
-  <si>
-    <t>GSM2058027</t>
-  </si>
-  <si>
-    <t>GSM2058028</t>
-  </si>
-  <si>
-    <t>GSM2058029</t>
-  </si>
-  <si>
-    <t>GSM2058030</t>
-  </si>
-  <si>
-    <t>GSM2058031</t>
-  </si>
-  <si>
-    <t>GSM2058032</t>
-  </si>
-  <si>
-    <t>GSM2058033</t>
-  </si>
-  <si>
-    <t>GSM2058034</t>
-  </si>
-  <si>
-    <t>GSM2058035</t>
-  </si>
-  <si>
-    <t>GSM2058036</t>
-  </si>
-  <si>
-    <t>GSM2058037</t>
-  </si>
-  <si>
-    <t>GSM2058038</t>
-  </si>
-  <si>
-    <t>GSM2058039</t>
-  </si>
-  <si>
-    <t>GSM2058040</t>
-  </si>
-  <si>
-    <t>GSM2058041</t>
-  </si>
-  <si>
-    <t>GSM2058042</t>
-  </si>
-  <si>
-    <t>GSM2058043</t>
-  </si>
-  <si>
-    <t>GSM2058044</t>
-  </si>
-  <si>
-    <t>GSM2058045</t>
-  </si>
-  <si>
-    <t>GSM2058046</t>
-  </si>
-  <si>
-    <t>GSM2058047</t>
-  </si>
-  <si>
-    <t>GSM2058048</t>
-  </si>
-  <si>
-    <t>GSM2058049</t>
-  </si>
-  <si>
-    <t>GSM2058050</t>
-  </si>
-  <si>
-    <t>GSM2058051</t>
-  </si>
-  <si>
-    <t>GSM2058052</t>
-  </si>
-  <si>
-    <t>GSM2058053</t>
-  </si>
-  <si>
-    <t>GSM2058054</t>
-  </si>
-  <si>
-    <t>GSM2058055</t>
-  </si>
-  <si>
-    <t>GSM2058056</t>
-  </si>
-  <si>
-    <t>GSM2058057</t>
-  </si>
-  <si>
-    <t>GSM2058058</t>
-  </si>
-  <si>
-    <t>GSM2058059</t>
-  </si>
-  <si>
-    <t>GSM2058060</t>
-  </si>
-  <si>
-    <t>GSM2058061</t>
-  </si>
-  <si>
-    <t>GSM2058062</t>
-  </si>
-  <si>
-    <t>GSM2058063</t>
-  </si>
-  <si>
-    <t>GSM2058064</t>
-  </si>
-  <si>
-    <t>GSM2058065</t>
-  </si>
-  <si>
-    <t>GSM2058066</t>
-  </si>
-  <si>
-    <t>GSM2058067</t>
-  </si>
-  <si>
-    <t>GSM2058068</t>
-  </si>
-  <si>
-    <t>GSM2058069</t>
-  </si>
-  <si>
-    <t>GSM2058070</t>
-  </si>
-  <si>
-    <t>GSM2058071</t>
-  </si>
-  <si>
-    <t>GSM2058072</t>
-  </si>
-  <si>
-    <t>GSM2058073</t>
-  </si>
-  <si>
-    <t>GSM2058074</t>
-  </si>
-  <si>
-    <t>GSM2058075</t>
-  </si>
-  <si>
-    <t>GSM2058076</t>
-  </si>
-  <si>
-    <t>GSM2058077</t>
-  </si>
-  <si>
-    <t>GSM2058078</t>
-  </si>
-  <si>
-    <t>GSM2058079</t>
-  </si>
-  <si>
-    <t>GSM2058080</t>
-  </si>
-  <si>
-    <t>GSM2058081</t>
-  </si>
-  <si>
-    <t>GSM2058082</t>
-  </si>
-  <si>
-    <t>GSM2058083</t>
-  </si>
-  <si>
-    <t>GSM2058084</t>
-  </si>
-  <si>
-    <t>GSM2058085</t>
-  </si>
-  <si>
-    <t>GSM2058086</t>
-  </si>
-  <si>
-    <t>GSM2058087</t>
-  </si>
-  <si>
-    <t>GSM2058088</t>
-  </si>
-  <si>
-    <t>GSM2058089</t>
-  </si>
-  <si>
-    <t>GSM2058090</t>
-  </si>
-  <si>
-    <t>GSM2058091</t>
-  </si>
-  <si>
-    <t>GSM2058092</t>
-  </si>
-  <si>
-    <t>GSM2058093</t>
   </si>
   <si>
     <t>Chipenrich_Median_Sensitivity</t>
@@ -436,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -478,10 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,43 +476,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC195-AB1D-C14E-9476-031E2CC25C6F}">
-  <dimension ref="A1:Z107"/>
+  <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z107"/>
+    <sheetView tabSelected="1" topLeftCell="S16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" customWidth="1"/>
+    <col min="10" max="10" width="28.375" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="30.83203125" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" customWidth="1"/>
-    <col min="14" max="14" width="26.83203125" customWidth="1"/>
+    <col min="12" max="12" width="30.875" customWidth="1"/>
+    <col min="13" max="13" width="25.875" customWidth="1"/>
+    <col min="14" max="14" width="26.875" customWidth="1"/>
     <col min="15" max="15" width="27.5" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="23.1640625" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" customWidth="1"/>
+    <col min="17" max="17" width="23.125" customWidth="1"/>
+    <col min="18" max="18" width="19.375" customWidth="1"/>
     <col min="19" max="19" width="21.5" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
-    <col min="21" max="21" width="12.5" customWidth="1"/>
-    <col min="22" max="22" width="20.5" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" customWidth="1"/>
-    <col min="24" max="24" width="18" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" customWidth="1"/>
-    <col min="26" max="26" width="20.5" customWidth="1"/>
+    <col min="21" max="21" width="20.5" customWidth="1"/>
+    <col min="22" max="22" width="18.375" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
+    <col min="24" max="24" width="17.625" customWidth="1"/>
+    <col min="25" max="25" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -846,73 +525,70 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="Q1" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="R1" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="U1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="V1" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="W1" t="s">
-        <v>129</v>
-      </c>
-      <c r="X1" t="s">
-        <v>130</v>
+        <v>23</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>25</v>
       </c>
@@ -977,15 +653,12 @@
         <f>MEDIAN($P2,$Q2,$R2,$S2)</f>
         <v>0</v>
       </c>
-      <c r="U2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" t="e">
+      <c r="Y2" t="e">
         <f>MEDIAN($U2,$V2,$W2,$X2)</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>18.75</v>
       </c>
@@ -1025,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1050,15 +723,24 @@
         <f t="shared" ref="T3:T66" si="3">MEDIAN($P3,$Q3,$R3,$S3)</f>
         <v>0</v>
       </c>
-      <c r="U3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" t="e">
-        <f t="shared" ref="Z3:Z66" si="4">MEDIAN($U3,$V3,$W3,$X3)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U3">
+        <v>100</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y66" si="4">MEDIAN($U3,$V3,$W3,$X3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>62.5</v>
       </c>
@@ -1107,15 +789,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" t="e">
+      <c r="Y4" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1149,26 +828,23 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="Q5" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="R5" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="S5" t="s">
-        <v>122</v>
-      </c>
-      <c r="U5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" t="e">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>62.5</v>
       </c>
@@ -1217,15 +893,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="e">
+      <c r="Y6" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>12.5</v>
       </c>
@@ -1274,15 +947,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="e">
+      <c r="Y7" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>6.25</v>
       </c>
@@ -1347,15 +1017,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="e">
+      <c r="Y8" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>6.25</v>
       </c>
@@ -1420,15 +1087,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="e">
+      <c r="Y9" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>6.25</v>
       </c>
@@ -1493,15 +1157,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="e">
+      <c r="Y10" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>6.25</v>
       </c>
@@ -1566,15 +1227,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z11" t="e">
+      <c r="Y11" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>6.25</v>
       </c>
@@ -1623,15 +1281,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z12" t="e">
+      <c r="Y12" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>75</v>
       </c>
@@ -1696,15 +1351,16 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="U13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z13" t="e">
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>75</v>
       </c>
@@ -1769,15 +1425,12 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="U14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z14" t="e">
+      <c r="Y14" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>75</v>
       </c>
@@ -1842,15 +1495,12 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="U15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z15" t="e">
+      <c r="Y15" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>6.25</v>
       </c>
@@ -1887,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="N16" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
@@ -1915,15 +1565,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z16" t="e">
+      <c r="Y16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>62.5</v>
       </c>
@@ -1988,15 +1635,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z17" t="e">
+      <c r="Y17" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>50</v>
       </c>
@@ -2036,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2045,15 +1689,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z18" t="e">
+      <c r="Y18" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>18.75</v>
       </c>
@@ -2090,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="N19" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
@@ -2118,15 +1759,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z19" t="e">
+      <c r="Y19" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>18.75</v>
       </c>
@@ -2166,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2191,15 +1829,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z20" t="e">
+      <c r="Y20" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25">
       <c r="A21" s="1">
         <v>25</v>
       </c>
@@ -2248,15 +1883,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z21" t="e">
+      <c r="Y21" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25">
       <c r="A22" s="1">
         <v>6.25</v>
       </c>
@@ -2296,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="N22" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
@@ -2321,15 +1953,12 @@
         <f t="shared" si="3"/>
         <v>10.096154</v>
       </c>
-      <c r="U22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z22" t="e">
+      <c r="Y22" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25">
       <c r="A23" s="1">
         <v>56.25</v>
       </c>
@@ -2391,15 +2020,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z23" t="e">
+      <c r="Y23" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25">
       <c r="A24" s="1">
         <v>6.25</v>
       </c>
@@ -2439,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2448,15 +2074,12 @@
         <f>MEDIAN($K24,$L24,$M24,$N24)</f>
         <v>0</v>
       </c>
-      <c r="U24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z24" t="e">
+      <c r="Y24" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>12.5</v>
       </c>
@@ -2496,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2505,15 +2128,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z25" t="e">
+      <c r="Y25" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25">
       <c r="A26" s="1">
         <v>75</v>
       </c>
@@ -2562,15 +2182,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z26" t="e">
+      <c r="Y26" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25">
       <c r="A27" s="1">
         <v>62.5</v>
       </c>
@@ -2635,15 +2252,12 @@
         <f t="shared" si="3"/>
         <v>8.8888885000000002</v>
       </c>
-      <c r="U27" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z27" t="e">
+      <c r="Y27" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25">
       <c r="A28" s="1">
         <v>6.25</v>
       </c>
@@ -2680,13 +2294,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="M28" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="N28" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
@@ -2708,15 +2322,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U28" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z28" t="e">
+      <c r="Y28" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2781,15 +2392,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z29" t="e">
+      <c r="Y29" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25">
       <c r="A30" s="1">
         <v>56.25</v>
       </c>
@@ -2854,15 +2462,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U30" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z30" t="e">
+      <c r="Y30" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25">
       <c r="A31" s="1">
         <v>31.25</v>
       </c>
@@ -2927,15 +2532,12 @@
         <f t="shared" si="3"/>
         <v>8.4967314999999992</v>
       </c>
-      <c r="U31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z31" t="e">
+      <c r="Y31" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25">
       <c r="A32" s="1">
         <v>31.25</v>
       </c>
@@ -3000,15 +2602,12 @@
         <f t="shared" si="3"/>
         <v>8.8888885000000002</v>
       </c>
-      <c r="U32" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z32" t="e">
+      <c r="Y32" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25">
       <c r="A33" s="1">
         <v>6.25</v>
       </c>
@@ -3073,15 +2672,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U33" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z33" t="e">
+      <c r="Y33" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25">
       <c r="A34" s="1">
         <v>25</v>
       </c>
@@ -3146,15 +2742,12 @@
         <f t="shared" si="3"/>
         <v>28.571429999999999</v>
       </c>
-      <c r="U34" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z34" t="e">
+      <c r="Y34" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25">
       <c r="A35" s="1">
         <v>50</v>
       </c>
@@ -3219,15 +2812,12 @@
         <f t="shared" si="3"/>
         <v>8.4967314999999992</v>
       </c>
-      <c r="U35" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z35" t="e">
+      <c r="Y35" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25">
       <c r="A36" s="1">
         <v>56.25</v>
       </c>
@@ -3292,15 +2882,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U36" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z36" t="e">
+      <c r="Y36" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25">
       <c r="A37" s="1">
         <v>62.5</v>
       </c>
@@ -3365,15 +2952,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U37" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z37" t="e">
+      <c r="Y37" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25">
       <c r="A38" s="1">
         <v>56.25</v>
       </c>
@@ -3438,15 +3022,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z38" t="e">
+      <c r="Y38" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25">
       <c r="A39" s="1">
         <v>62.5</v>
       </c>
@@ -3511,15 +3092,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U39" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z39" t="e">
+      <c r="Y39" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25">
       <c r="A40" s="1">
         <v>56.25</v>
       </c>
@@ -3584,15 +3162,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U40" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z40" t="e">
+      <c r="Y40" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25">
       <c r="A41" s="1">
         <v>62.5</v>
       </c>
@@ -3657,15 +3232,12 @@
         <f t="shared" si="3"/>
         <v>11.805555</v>
       </c>
-      <c r="U41" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z41" t="e">
+      <c r="Y41" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25">
       <c r="A42" s="1">
         <v>25</v>
       </c>
@@ -3730,15 +3302,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U42" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z42" t="e">
+      <c r="Y42" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25">
       <c r="A43" s="1">
         <v>50</v>
       </c>
@@ -3803,15 +3372,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U43" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z43" t="e">
+      <c r="Y43" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25">
       <c r="A44" s="1">
         <v>56.25</v>
       </c>
@@ -3876,15 +3442,12 @@
         <f t="shared" si="3"/>
         <v>11.805555</v>
       </c>
-      <c r="U44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z44" t="e">
+      <c r="Y44" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25">
       <c r="A45" s="1">
         <v>75</v>
       </c>
@@ -3949,15 +3512,12 @@
         <f t="shared" si="3"/>
         <v>3.3333335000000002</v>
       </c>
-      <c r="U45" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z45" t="e">
+      <c r="Y45" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25">
       <c r="A46" s="1">
         <v>62.5</v>
       </c>
@@ -4022,15 +3582,12 @@
         <f t="shared" si="3"/>
         <v>9.7222214999999998</v>
       </c>
-      <c r="U46" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z46" t="e">
+      <c r="Y46" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25">
       <c r="A47" s="1">
         <v>62.5</v>
       </c>
@@ -4095,15 +3652,12 @@
         <f t="shared" si="3"/>
         <v>9.1269834999999997</v>
       </c>
-      <c r="U47" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z47" t="e">
+      <c r="Y47" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25">
       <c r="A48" s="1">
         <v>56.25</v>
       </c>
@@ -4152,15 +3706,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U48" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z48" t="e">
+      <c r="Y48" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -4209,15 +3760,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U49" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z49" t="e">
+      <c r="Y49" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -4266,15 +3814,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U50" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z50" t="e">
+      <c r="Y50" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25">
       <c r="A51" s="1">
         <v>56.25</v>
       </c>
@@ -4339,15 +3884,12 @@
         <f t="shared" si="3"/>
         <v>25.833334999999998</v>
       </c>
-      <c r="U51" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z51" t="e">
+      <c r="Y51" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25">
       <c r="A52" s="1">
         <v>56.25</v>
       </c>
@@ -4412,15 +3954,12 @@
         <f t="shared" si="3"/>
         <v>11.805555</v>
       </c>
-      <c r="U52" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z52" t="e">
+      <c r="Y52" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -4485,15 +4024,12 @@
         <f t="shared" si="3"/>
         <v>33.333329999999997</v>
       </c>
-      <c r="U53" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z53" t="e">
+      <c r="Y53" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25">
       <c r="A54" s="1">
         <v>62.5</v>
       </c>
@@ -4558,15 +4094,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U54" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z54" t="e">
+      <c r="Y54" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25">
       <c r="A55" s="1">
         <v>43.75</v>
       </c>
@@ -4631,15 +4164,12 @@
         <f t="shared" si="3"/>
         <v>9.7222214999999998</v>
       </c>
-      <c r="U55" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z55" t="e">
+      <c r="Y55" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -4704,15 +4234,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U56" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z56" t="e">
+      <c r="Y56" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25">
       <c r="A57" s="1">
         <v>50</v>
       </c>
@@ -4777,15 +4304,12 @@
         <f t="shared" si="3"/>
         <v>7.142855</v>
       </c>
-      <c r="U57" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z57" t="e">
+      <c r="Y57" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25">
       <c r="A58" s="1">
         <v>62.5</v>
       </c>
@@ -4850,15 +4374,12 @@
         <f t="shared" si="3"/>
         <v>3.3333335000000002</v>
       </c>
-      <c r="U58" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z58" t="e">
+      <c r="Y58" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25">
       <c r="A59" s="1">
         <v>68.75</v>
       </c>
@@ -4923,15 +4444,12 @@
         <f t="shared" si="3"/>
         <v>12.698409999999999</v>
       </c>
-      <c r="U59" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z59" t="e">
+      <c r="Y59" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25">
       <c r="A60" s="1">
         <v>62.5</v>
       </c>
@@ -4996,15 +4514,12 @@
         <f t="shared" si="3"/>
         <v>11.805555</v>
       </c>
-      <c r="U60" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z60" t="e">
+      <c r="Y60" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25">
       <c r="A61" s="1">
         <v>68.75</v>
       </c>
@@ -5069,15 +4584,12 @@
         <f t="shared" si="3"/>
         <v>26.785715</v>
       </c>
-      <c r="U61" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z61" t="e">
+      <c r="Y61" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25">
       <c r="A62" s="1">
         <v>50</v>
       </c>
@@ -5142,15 +4654,12 @@
         <f t="shared" si="3"/>
         <v>23.333329999999997</v>
       </c>
-      <c r="U62" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z62" t="e">
+      <c r="Y62" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25">
       <c r="A63" s="1">
         <v>62.5</v>
       </c>
@@ -5215,15 +4724,12 @@
         <f t="shared" si="3"/>
         <v>11.805555</v>
       </c>
-      <c r="U63" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z63" t="e">
+      <c r="Y63" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25">
       <c r="A64" s="1">
         <v>43.75</v>
       </c>
@@ -5288,15 +4794,12 @@
         <f t="shared" si="3"/>
         <v>11.805555</v>
       </c>
-      <c r="U64" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z64" t="e">
+      <c r="Y64" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25">
       <c r="A65" s="1">
         <v>37.5</v>
       </c>
@@ -5361,15 +4864,12 @@
         <f t="shared" si="3"/>
         <v>8.8888885000000002</v>
       </c>
-      <c r="U65" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z65" t="e">
+      <c r="Y65" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25">
       <c r="A66" s="1">
         <v>43.75</v>
       </c>
@@ -5434,15 +4934,12 @@
         <f t="shared" si="3"/>
         <v>9.1269834999999997</v>
       </c>
-      <c r="U66" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z66" t="e">
+      <c r="Y66" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25">
       <c r="A67" s="1">
         <v>62.5</v>
       </c>
@@ -5491,15 +4988,12 @@
         <f t="shared" ref="O67:O107" si="7">MEDIAN($K67,$L67,$M67,$N67)</f>
         <v>0</v>
       </c>
-      <c r="U67" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z67" t="e">
-        <f t="shared" ref="Z67:Z107" si="8">MEDIAN($U67,$V67,$W67,$X67)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y67" t="e">
+        <f t="shared" ref="Y67:Y107" si="8">MEDIAN($U67,$V67,$W67,$X67)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="1">
         <v>62.5</v>
       </c>
@@ -5564,15 +5058,12 @@
         <f t="shared" ref="T68:T107" si="9">MEDIAN($P68,$Q68,$R68,$S68)</f>
         <v>21.875</v>
       </c>
-      <c r="U68" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z68" t="e">
+      <c r="Y68" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25">
       <c r="A69" s="1">
         <v>43.75</v>
       </c>
@@ -5637,15 +5128,12 @@
         <f t="shared" si="9"/>
         <v>11.309521499999999</v>
       </c>
-      <c r="U69" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z69" t="e">
+      <c r="Y69" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25">
       <c r="A70" s="1">
         <v>56.25</v>
       </c>
@@ -5710,15 +5198,12 @@
         <f t="shared" si="9"/>
         <v>8.680555</v>
       </c>
-      <c r="U70" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z70" t="e">
+      <c r="Y70" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25">
       <c r="A71" s="1">
         <v>25</v>
       </c>
@@ -5783,15 +5268,12 @@
         <f t="shared" si="9"/>
         <v>6.25</v>
       </c>
-      <c r="U71" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z71" t="e">
+      <c r="Y71" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25">
       <c r="A72" s="1">
         <v>18.75</v>
       </c>
@@ -5831,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="N72" s="1">
         <v>0</v>
@@ -5856,15 +5338,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U72" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z72" t="e">
+      <c r="Y72" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25">
       <c r="A73" s="1">
         <v>37.5</v>
       </c>
@@ -5929,15 +5408,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U73" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z73" t="e">
+      <c r="Y73" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25">
       <c r="A74" s="1">
         <v>68.75</v>
       </c>
@@ -6002,15 +5478,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U74" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z74" t="e">
+      <c r="Y74" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25">
       <c r="A75" s="1">
         <v>31.25</v>
       </c>
@@ -6075,15 +5548,12 @@
         <f t="shared" si="9"/>
         <v>3.8461539999999999</v>
       </c>
-      <c r="U75" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z75" t="e">
+      <c r="Y75" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25">
       <c r="A76" s="1">
         <v>37.5</v>
       </c>
@@ -6148,15 +5618,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U76" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z76" t="e">
+      <c r="Y76" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25">
       <c r="A77" s="1">
         <v>50</v>
       </c>
@@ -6221,15 +5688,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U77" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z77" t="e">
+      <c r="Y77" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25">
       <c r="A78" s="1">
         <v>56.25</v>
       </c>
@@ -6294,15 +5758,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U78" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z78" t="e">
+      <c r="Y78" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25">
       <c r="A79" s="1">
         <v>43.75</v>
       </c>
@@ -6367,15 +5828,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U79" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z79" t="e">
+      <c r="Y79" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25">
       <c r="A80" s="1">
         <v>31.25</v>
       </c>
@@ -6440,15 +5898,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U80" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z80" t="e">
+      <c r="Y80" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25">
       <c r="A81" s="1">
         <v>37.5</v>
       </c>
@@ -6513,15 +5968,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U81" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z81" t="e">
+      <c r="Y81" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25">
       <c r="A82" s="1">
         <v>50</v>
       </c>
@@ -6586,15 +6038,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U82" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z82" t="e">
+      <c r="Y82" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25">
       <c r="A83" s="1">
         <v>31.25</v>
       </c>
@@ -6659,15 +6108,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U83" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z83" t="e">
+      <c r="Y83" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25">
       <c r="A84" s="1">
         <v>31.25</v>
       </c>
@@ -6732,15 +6178,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U84" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z84" t="e">
+      <c r="Y84" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25">
       <c r="A85" s="1">
         <v>31.25</v>
       </c>
@@ -6805,15 +6248,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U85" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z85" t="e">
+      <c r="Y85" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25">
       <c r="A86" s="1">
         <v>25</v>
       </c>
@@ -6878,15 +6318,12 @@
         <f t="shared" si="9"/>
         <v>6.25</v>
       </c>
-      <c r="U86" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z86" t="e">
+      <c r="Y86" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25">
       <c r="A87" s="1">
         <v>18.75</v>
       </c>
@@ -6951,15 +6388,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U87" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z87" t="e">
+      <c r="Y87" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25">
       <c r="A88" s="1">
         <v>31.25</v>
       </c>
@@ -7024,15 +6458,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U88" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z88" t="e">
+      <c r="Y88" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25">
       <c r="A89" s="1">
         <v>25</v>
       </c>
@@ -7097,15 +6528,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U89" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z89" t="e">
+      <c r="Y89" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25">
       <c r="A90" s="1">
         <v>31.25</v>
       </c>
@@ -7170,15 +6598,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U90" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z90" t="e">
+      <c r="Y90" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25">
       <c r="A91" s="1">
         <v>31.25</v>
       </c>
@@ -7243,15 +6668,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U91" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z91" t="e">
+      <c r="Y91" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25">
       <c r="A92" s="1">
         <v>31.25</v>
       </c>
@@ -7316,15 +6738,12 @@
         <f t="shared" si="9"/>
         <v>13.247865000000001</v>
       </c>
-      <c r="U92" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z92" t="e">
+      <c r="Y92" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25">
       <c r="A93" s="1">
         <v>43.75</v>
       </c>
@@ -7389,15 +6808,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U93" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z93" t="e">
+      <c r="Y93" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25">
       <c r="A94" s="1">
         <v>37.5</v>
       </c>
@@ -7462,15 +6878,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U94" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z94" t="e">
+      <c r="Y94" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25">
       <c r="A95" s="1">
         <v>37.5</v>
       </c>
@@ -7535,15 +6948,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U95" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z95" t="e">
+      <c r="Y95" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25">
       <c r="A96" s="1">
         <v>37.5</v>
       </c>
@@ -7608,15 +7018,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U96" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z96" t="e">
+      <c r="Y96" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25">
       <c r="A97" s="1">
         <v>37.5</v>
       </c>
@@ -7681,15 +7088,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U97" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z97" t="e">
+      <c r="Y97" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25">
       <c r="A98" s="1">
         <v>56.25</v>
       </c>
@@ -7754,15 +7158,12 @@
         <f t="shared" si="9"/>
         <v>3.8461539999999999</v>
       </c>
-      <c r="U98" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z98" t="e">
+      <c r="Y98" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25">
       <c r="A99" s="1">
         <v>37.5</v>
       </c>
@@ -7827,15 +7228,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U99" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z99" t="e">
+      <c r="Y99" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25">
       <c r="A100" s="1">
         <v>18.75</v>
       </c>
@@ -7900,15 +7298,12 @@
         <f t="shared" si="9"/>
         <v>6.6666650000000001</v>
       </c>
-      <c r="U100" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z100" t="e">
+      <c r="Y100" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25">
       <c r="A101" s="1">
         <v>25</v>
       </c>
@@ -7973,15 +7368,12 @@
         <f t="shared" si="9"/>
         <v>3.3333335000000002</v>
       </c>
-      <c r="U101" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z101" t="e">
+      <c r="Y101" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25">
       <c r="A102" s="1">
         <v>31.25</v>
       </c>
@@ -8046,15 +7438,12 @@
         <f t="shared" si="9"/>
         <v>3.5714285000000001</v>
       </c>
-      <c r="U102" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z102" t="e">
+      <c r="Y102" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25">
       <c r="A103" s="1">
         <v>31.25</v>
       </c>
@@ -8119,15 +7508,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U103" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z103" t="e">
+      <c r="Y103" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25">
       <c r="A104" s="1">
         <v>37.5</v>
       </c>
@@ -8192,15 +7578,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U104" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z104" t="e">
+      <c r="Y104" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25">
       <c r="A105" s="1">
         <v>18.75</v>
       </c>
@@ -8265,15 +7648,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U105" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z105" t="e">
+      <c r="Y105" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25">
       <c r="A106" s="1">
         <v>18.75</v>
       </c>
@@ -8338,15 +7718,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U106" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z106" t="e">
+      <c r="Y106" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25">
       <c r="A107" s="1">
         <v>18.75</v>
       </c>
@@ -8411,10 +7788,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U107" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z107" t="e">
+      <c r="Y107" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
